--- a/biology/Zoologie/Effraie/Effraie.xlsx
+++ b/biology/Zoologie/Effraie/Effraie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tyto
 Les effraies sont des chouettes à grosse tête et au disque facial en forme de cœur. Leurs pattes sont longues et munies de doigts puissants, habituellement avec des serres bien développées. Le plumage est généralement brun fauve et crème ou blanc, tacheté, moucheté ou barré.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vernaculaire de ces chouettes vient d'orfraie (du latin ossifraga « [oiseau] briseur d'os ») qui désignait certaines espèces de rapaces pêcheurs diurnes. Depuis le XVIe siècle et en particulier chez Ronsard, ce terme orfraie existe déjà, mais pour désigner un rapace nocturne. Sous l'influence du verbe effrayer, il s'est déformé en effraie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vernaculaire de ces chouettes vient d'orfraie (du latin ossifraga « [oiseau] briseur d'os ») qui désignait certaines espèces de rapaces pêcheurs diurnes. Depuis le XVIe siècle et en particulier chez Ronsard, ce terme orfraie existe déjà, mais pour désigner un rapace nocturne. Sous l'influence du verbe effrayer, il s'est déformé en effraie.
 Le nom Tyto, quant à lui, est issu du mot grec onomatopéique « τυτώ » qui signifie « chouette ».
 </t>
         </is>
@@ -545,9 +559,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>D'après la classification de référence (version 3.4, 2013) du Congrès ornithologique international (ordre phylogénique) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après la classification de référence (version 3.4, 2013) du Congrès ornithologique international (ordre phylogénique) :
 Tyto tenebricosa – Effraie ombrée
 Tyto multipunctata – Effraie piquetée
 Tyto inexspectata – Effraie de Minahassa
@@ -578,18 +594,94 @@
 			Tyto rosenbergii
 			Tyto soumagnei
 			Tyto tenebricosa
-Espèces éteintes
-Connu des anciens fossiles
-Tyto sanctialbani (milieu - fin du Miocène de l'Europe centrale) - anciennement dans Strix, comprend T. campiterrae
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Effraie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Effraie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces éteintes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Connu des anciens fossiles</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tyto sanctialbani (milieu - fin du Miocène de l'Europe centrale) - anciennement dans Strix, comprend T. campiterrae
 Tyto robusta (fin du Miocène/début du Pliocène de la péninsule du Gargano, Italie)
 Tyto gigantea  (Miocène tardif / Pliocène précoce de la péninsule du Gargano, Italie)
 Tyto balearica (Miocène tardif - Pléistocène moyen du WC méditerranéen)
 Tyto mourerchauvireae (Pléistocène moyen de Sicile, Méditerranée)
-Tyto jinniushanensis ((Pléistocène de Jing Niu Shan, Chine)
-Extinctions préhistoriques tardives généralement connues à partir de restes subfossiles
-Chouette effraie de Mussau (Tyto cf. novaehollandiae) trouvée sur Mussau [2]
+Tyto jinniushanensis ((Pléistocène de Jing Niu Shan, Chine)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Effraie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Effraie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces éteintes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Extinctions préhistoriques tardives généralement connues à partir de restes subfossiles</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Chouette effraie de Mussau (Tyto cf. novaehollandiae) trouvée sur Mussau 
 La chouette effraie de Nouvelle-Irlande (Tyto cf. novaehollandiae) trouvée en Nouvelle-Irlande
-Le Petit-duc d'Irlande (Tyto cf. alba/aurantiaca) trouvé en Nouvelle-Irlande [2]
+Le Petit-duc d'Irlande (Tyto cf. alba/aurantiaca) trouvé en Nouvelle-Irlande 
 Chouette effraie de Nouvelle-Calédonie (Tyto letocarti) trouvée en Nouvelle-Calédonie - provisoirement placée ici
 Chouette effraie de Porto Rico (Tyto cavatica) trouvée à Porto Rico - existait peut-être encore en 1912 ; peut-être une sous-espèce de la chouette effraie (Tyto glaucops)
 La chouette effraie de Noel (Tyto noeli) trouvée à Cuba
@@ -598,41 +690,77 @@
 Chouette effraie hispanique (Tyto ostologa) trouvée sur Hispaniola
 La chouette effraie des Bahamas (pollens de Tyto) trouvée à Little Exuma, New Providence, et peut-être sur l'île d'Andros, Bahamas - a peut-être survécu jusqu'au XVIe siècle
 Chouette effraie des granges (Tyto neddi) trouvée à Barbuda, peut-être à Antigua
-Hibou des granges (Tyto melitensis) trouvé à Malte - anciennement à Strix, probablement une paléosous-espèce de Tyto alba
-Anciennes espèces
-Un certain nombre de fossiles de chouettes ont été à un moment attribués au genre actuel, mais sont aujourd'hui placés ailleurs. Bien qu'il y ait des différences évidentes en ostéologie entre les hiboux véritables et les effraies, il y a eu une évolution parallèle dans une certaine mesure et donc les os fossiles isolés ne peuvent pas nécessairement être attribués à l'une ou l'autre famille sans une étude approfondie. Le genre Strix a notamment été utilisé à tort par de nombreux scientifiques de la première heure comme un « taxon poubelle » pour de nombreux hiboux, dont Tyto[2].
-Tyto antiqua (Eocène tardif / Oligocène précoce du Quercy ? - Miocène précoce de la France) était un hibou grand-duc du genre préhistorique Prosybris ; ce taxon pourrait être un nomen nudum car l'espèce a été décrite à l'origine dans Strix ; cela demande confirmation[3].
+Hibou des granges (Tyto melitensis) trouvé à Malte - anciennement à Strix, probablement une paléosous-espèce de Tyto alba</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Effraie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Effraie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Anciennes espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Un certain nombre de fossiles de chouettes ont été à un moment attribués au genre actuel, mais sont aujourd'hui placés ailleurs. Bien qu'il y ait des différences évidentes en ostéologie entre les hiboux véritables et les effraies, il y a eu une évolution parallèle dans une certaine mesure et donc les os fossiles isolés ne peuvent pas nécessairement être attribués à l'une ou l'autre famille sans une étude approfondie. Le genre Strix a notamment été utilisé à tort par de nombreux scientifiques de la première heure comme un « taxon poubelle » pour de nombreux hiboux, dont Tyto.
+Tyto antiqua (Eocène tardif / Oligocène précoce du Quercy ? - Miocène précoce de la France) était un hibou grand-duc du genre préhistorique Prosybris ; ce taxon pourrait être un nomen nudum car l'espèce a été décrite à l'origine dans Strix ; cela demande confirmation.
 Tyto edwardsi (Miocène tardif de Grive-Saint-Alban, France) était un hibou strigide mais son genre n'a pas encore été identifié de manière fiable ; il pourrait appartenir au groupe Strix ou au groupe européen de type Ninox.
-Tyto ignota (Miocène moyen de Sansan, France) était une chouette strigide aux affinités peu claires ; bien qu'elle puisse appartenir au groupe Strix, cela nécessite une confirmation[3].
+Tyto ignota (Miocène moyen de Sansan, France) était une chouette strigide aux affinités peu claires ; bien qu'elle puisse appartenir au groupe Strix, cela nécessite une confirmation.
 Le "TMT 164", un tarsométatarse distal gauche d'un Tyto supposé du Miocène moyen trouvé à La Grive-Saint-Alban (France) pourrait également appartenir à Prosybris car il est similaire au Tyto antiqua.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Effraie</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Effraie</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les effraies sont plus foncées sur le dos que sur le devant, généralement de couleur brun-roux. Le devant est plus pâle ou tacheté que le dos, bien qu'il y ait des variations considérables même entre les espèces. Les chouettes Tyto ont un disque facial divisé, en forme de cœur. Étant des chouettes et non des hiboux, elles n'ont pas d'aigrettes (la paire de touffes de plumes en forme d'oreille que l'on retrouve sur la tête des hiboux et qui, en français, fait la distinction entre les chouettes et les hiboux). 
 </t>
